--- a/examples/Australia OGD/victim_assistance/counters.xlsx
+++ b/examples/Australia OGD/victim_assistance/counters.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Australia OGD/victim_assistance/counters.xlsx
+++ b/examples/Australia OGD/victim_assistance/counters.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -394,7 +394,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -411,7 +411,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -445,7 +445,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -700,12 +700,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' is not a float. A float was expected</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Granted</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Completeness of Mandatory Attributes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Granted</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Metadata Compliance</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Error: Value '' is not a float. A float was expected</t>
         </is>
       </c>
     </row>
